--- a/DataSet/numbersOnly.xlsx
+++ b/DataSet/numbersOnly.xlsx
@@ -971,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH158"/>
+  <dimension ref="A1:BH162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM149" workbookViewId="0">
-      <selection activeCell="AZ153" sqref="AZ153"/>
+    <sheetView tabSelected="1" topLeftCell="AZ153" workbookViewId="0">
+      <selection activeCell="BC154" sqref="BC154:BH154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28595,6 +28595,12 @@
         <v>1.2859271523178812</v>
       </c>
     </row>
+    <row r="162" spans="50:50" x14ac:dyDescent="0.25">
+      <c r="AX162">
+        <f>1.84/1.28</f>
+        <v>1.4375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
